--- a/client/data/Pensions calculator.xlsx
+++ b/client/data/Pensions calculator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="24920" windowHeight="17500"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="30520" windowHeight="22500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,121 +192,121 @@
                   <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4020.0</c:v>
+                  <c:v>4110.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6060.2</c:v>
+                  <c:v>6336.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8120.802</c:v>
+                  <c:v>8684.532749999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10202.01002</c:v>
+                  <c:v>11162.18205125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12304.0301202</c:v>
+                  <c:v>13776.10206406875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14427.070421402</c:v>
+                  <c:v>16533.78767759253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16571.34112561602</c:v>
+                  <c:v>19443.14599986011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18737.05453687218</c:v>
+                  <c:v>22512.51902985242</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20924.4250822409</c:v>
+                  <c:v>25750.7075764943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23133.66933306331</c:v>
+                  <c:v>29166.99649320148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25365.00602639394</c:v>
+                  <c:v>32771.18130032756</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27618.65608665788</c:v>
+                  <c:v>36573.59627184557</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29894.84264752446</c:v>
+                  <c:v>40585.14406679707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32193.79107399971</c:v>
+                  <c:v>44817.3269904709</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34515.7289847397</c:v>
+                  <c:v>49282.2799749468</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36860.8862745871</c:v>
+                  <c:v>53992.80537356887</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39229.49513733297</c:v>
+                  <c:v>58962.40966911516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41621.79008870631</c:v>
+                  <c:v>64205.34220091648</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44038.00798959337</c:v>
+                  <c:v>69736.63602196689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46478.3880694893</c:v>
+                  <c:v>75572.15100317506</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48943.1719501842</c:v>
+                  <c:v>81728.6193083497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51432.60366968605</c:v>
+                  <c:v>88223.69337030891</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53946.92970638291</c:v>
+                  <c:v>95075.9965056759</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56486.39900344673</c:v>
+                  <c:v>102305.1763134881</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>59051.2629934812</c:v>
+                  <c:v>109931.9610107299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>61641.77562341601</c:v>
+                  <c:v>117978.21886632</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64258.19337965017</c:v>
+                  <c:v>126467.0209039676</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66900.77531344667</c:v>
+                  <c:v>135422.7070536859</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69569.78306658114</c:v>
+                  <c:v>144870.9559416386</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>72265.48089724696</c:v>
+                  <c:v>154838.8585184287</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74988.13570621943</c:v>
+                  <c:v>165354.9957369422</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77738.01706328163</c:v>
+                  <c:v>176449.520502474</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80515.39723391445</c:v>
+                  <c:v>188154.2441301101</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83320.5512062536</c:v>
+                  <c:v>200502.7275572662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>86153.75671831613</c:v>
+                  <c:v>213530.3775729158</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89015.29428549929</c:v>
+                  <c:v>227274.5483394261</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>91905.44722835429</c:v>
+                  <c:v>241774.6484980946</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>94824.50170063783</c:v>
+                  <c:v>257072.2541654898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>97772.74671764421</c:v>
+                  <c:v>273211.2281445917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,8 +464,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080596904"/>
-        <c:axId val="-2080588360"/>
+        <c:axId val="-2085674952"/>
+        <c:axId val="-2085703624"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -625,11 +625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2080596904"/>
-        <c:axId val="-2080588360"/>
+        <c:axId val="-2085674952"/>
+        <c:axId val="-2085703624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2080596904"/>
+        <c:axId val="-2085674952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080588360"/>
+        <c:crossAx val="-2085703624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -674,7 +674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080588360"/>
+        <c:axId val="-2085703624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080596904"/>
+        <c:crossAx val="-2085674952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:C472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5">
         <v>0.02</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B6" s="3">
         <f>B4-B5</f>
-        <v>9.999999999999995E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C6">
         <f>C4-C5</f>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B7" s="3">
         <f>1+B6</f>
-        <v>1.01</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="C7">
         <f>1+C6</f>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B9" s="3">
         <f>(B7^B3-B7)/(B7-1)</f>
-        <v>47.886373358822112</v>
+        <v>135.60561407229602</v>
       </c>
       <c r="C9" s="3">
         <f>(C7^C3-C7)/(C7-1)</f>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B10" s="3">
         <f>B9*(B2)</f>
-        <v>95772.74671764423</v>
+        <v>271211.22814459202</v>
       </c>
       <c r="C10" s="3">
         <f>C9*(C2)</f>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B11" s="3">
         <f>B10+B2:B2</f>
-        <v>97772.74671764423</v>
+        <v>273211.22814459202</v>
       </c>
       <c r="C11" s="3">
         <f>C10+C2:C2</f>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B15" s="3">
         <f>B14*B$7+B$2</f>
-        <v>4020</v>
+        <v>4110</v>
       </c>
       <c r="C15" s="3">
         <f>C14*C$7+C$2</f>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ref="B16:B32" si="0">B15*B$7+B$2</f>
-        <v>6060.2</v>
+        <v>6336.05</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ref="C16:C32" si="1">C15*C$7+C$2</f>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>8120.8019999999997</v>
+        <v>8684.5327499999985</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="1"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>10202.01002</v>
+        <v>11162.182051249998</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>12304.030120199999</v>
+        <v>13776.102064068747</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="1"/>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>14427.070421401999</v>
+        <v>16533.787677592525</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="1"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>16571.341125616018</v>
+        <v>19443.145999860113</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="1"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>18737.05453687218</v>
+        <v>22512.519029852418</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="1"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>20924.425082240901</v>
+        <v>25750.7075764943</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="1"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>23133.66933306331</v>
+        <v>29166.996493201485</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>25365.006026393941</v>
+        <v>32771.18130032756</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="1"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>27618.65608665788</v>
+        <v>36573.59627184557</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="1"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>29894.84264752446</v>
+        <v>40585.144066797075</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="1"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>32193.791073999706</v>
+        <v>44817.326990470909</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="1"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>34515.728984739704</v>
+        <v>49282.279974946803</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="1"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>36860.886274587101</v>
+        <v>53992.805373568874</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="1"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>39229.495137332975</v>
+        <v>58962.409669115157</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>41621.790088706308</v>
+        <v>64205.342200916486</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="1"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" ref="B33:B53" si="2">B32*B$7+B$2</f>
-        <v>44038.007989593374</v>
+        <v>69736.636021966886</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:C53" si="3">C32*C$7+C$2</f>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" si="2"/>
-        <v>46478.388069489309</v>
+        <v>75572.151003175066</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="3"/>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" si="2"/>
-        <v>48943.171950184202</v>
+        <v>81728.619308349691</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="3"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" si="2"/>
-        <v>51432.603669686046</v>
+        <v>88223.693370308916</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="3"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" si="2"/>
-        <v>53946.929706382907</v>
+        <v>95075.996505675896</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="3"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" si="2"/>
-        <v>56486.399003446735</v>
+        <v>102305.17631348806</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="3"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" si="2"/>
-        <v>59051.262993481199</v>
+        <v>109931.96101072989</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="3"/>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B40" s="3">
         <f t="shared" si="2"/>
-        <v>61641.775623416012</v>
+        <v>117978.21886632004</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="3"/>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" si="2"/>
-        <v>64258.193379650169</v>
+        <v>126467.02090396763</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="3"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" si="2"/>
-        <v>66900.775313446677</v>
+        <v>135422.70705368585</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" si="3"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" si="2"/>
-        <v>69569.783066581149</v>
+        <v>144870.95594163856</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" si="3"/>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B44" s="3">
         <f t="shared" si="2"/>
-        <v>72265.480897246962</v>
+        <v>154838.85851842866</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="3"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" si="2"/>
-        <v>74988.135706219429</v>
+        <v>165354.99573694222</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" si="3"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B46" s="3">
         <f t="shared" si="2"/>
-        <v>77738.01706328163</v>
+        <v>176449.52050247404</v>
       </c>
       <c r="C46" s="3">
         <f t="shared" si="3"/>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" si="2"/>
-        <v>80515.397233914453</v>
+        <v>188154.24413011011</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="3"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" si="2"/>
-        <v>83320.5512062536</v>
+        <v>200502.72755726616</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="3"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B49" s="3">
         <f t="shared" si="2"/>
-        <v>86153.75671831613</v>
+        <v>213530.37757291578</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="3"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B50" s="3">
         <f t="shared" si="2"/>
-        <v>89015.294285499287</v>
+        <v>227274.54833942614</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="3"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B51" s="3">
         <f t="shared" si="2"/>
-        <v>91905.447228354285</v>
+        <v>241774.64849809455</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="3"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B52" s="3">
         <f t="shared" si="2"/>
-        <v>94824.501700637833</v>
+        <v>257072.25416548975</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" si="3"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B53" s="3">
         <f t="shared" si="2"/>
-        <v>97772.746717644215</v>
+        <v>273211.22814459167</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="3"/>

--- a/client/data/Pensions calculator.xlsx
+++ b/client/data/Pensions calculator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="30520" windowHeight="22500"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="36240" windowHeight="21320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Pensioner A</t>
   </si>
@@ -58,12 +58,15 @@
   <si>
     <t>Year</t>
   </si>
+  <si>
+    <t>Charge rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -82,6 +85,12 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,11 +119,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -129,6 +147,15 @@
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,10 +186,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.136252879489717"/>
-          <c:y val="0.0643087573973323"/>
-          <c:w val="0.817517276938302"/>
-          <c:h val="0.829582970425586"/>
+          <c:x val="0.112754260731592"/>
+          <c:y val="0.0612813370473537"/>
+          <c:w val="0.852126462250229"/>
+          <c:h val="0.832869080779944"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -184,7 +211,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$53</c:f>
+              <c:f>Sheet1!$B$15:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -192,121 +219,121 @@
                   <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4110.0</c:v>
+                  <c:v>4099.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6336.05</c:v>
+                  <c:v>6313.63718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8684.532749999998</c:v>
+                  <c:v>8648.993133746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11162.18205125</c:v>
+                  <c:v>11112.09305816191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13776.10206406875</c:v>
+                  <c:v>13709.92454844336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16533.78767759253</c:v>
+                  <c:v>16449.85742124322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19443.14599986011</c:v>
+                  <c:v>19339.66462218522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22512.51902985242</c:v>
+                  <c:v>22387.54427701875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25750.7075764943</c:v>
+                  <c:v>25602.14294897168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29166.99649320148</c:v>
+                  <c:v>28992.58016828044</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32771.18130032756</c:v>
+                  <c:v>32568.47430348538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36573.59627184557</c:v>
+                  <c:v>36339.96984788603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40585.14406679707</c:v>
+                  <c:v>40317.7661985654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44817.3269904709</c:v>
+                  <c:v>44513.14800962692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49282.2799749468</c:v>
+                  <c:v>48938.01720575352</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53992.80537356887</c:v>
+                  <c:v>53604.92674690824</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58962.40966911516</c:v>
+                  <c:v>58527.11623996412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64205.34220091648</c:v>
+                  <c:v>63718.54949829016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69736.63602196689</c:v>
+                  <c:v>69193.95415584664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75572.15100317506</c:v>
+                  <c:v>74968.86344817145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>81728.6193083497</c:v>
+                  <c:v>81059.66027878644</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>88223.69337030891</c:v>
+                  <c:v>87483.62369603605</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>95075.9965056759</c:v>
+                  <c:v>94258.97791220923</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>102305.1763134881</c:v>
+                  <c:v>101404.9440040071</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109931.9610107299</c:v>
+                  <c:v>108941.7944410263</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>117978.21886632</c:v>
+                  <c:v>116890.9105969504</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>126467.0209039676</c:v>
+                  <c:v>125274.8434066036</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>135422.7070536859</c:v>
+                  <c:v>134117.3773409448</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>144870.9559416386</c:v>
+                  <c:v>143443.5978814945</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>154838.8585184287</c:v>
+                  <c:v>153279.9626856123</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>165354.9957369422</c:v>
+                  <c:v>163654.3766445153</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>176449.520502474</c:v>
+                  <c:v>174596.2710469702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>188154.2441301101</c:v>
+                  <c:v>186136.6870732395</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>200502.7275572662</c:v>
+                  <c:v>198308.3638561457</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>213530.3775729158</c:v>
+                  <c:v>211145.8313590769</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>227274.5483394261</c:v>
+                  <c:v>224685.5083344184</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>241774.6484980946</c:v>
+                  <c:v>238965.8056403111</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>257072.2541654898</c:v>
+                  <c:v>254027.2352088361</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>273211.2281445917</c:v>
+                  <c:v>269912.5249747595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,7 +355,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$53</c:f>
+              <c:f>Sheet1!$C$15:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -336,121 +363,121 @@
                   <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4080.0</c:v>
+                  <c:v>4037.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6243.2</c:v>
+                  <c:v>6154.25888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8492.928</c:v>
+                  <c:v>8353.044124544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10832.64512</c:v>
+                  <c:v>10637.14223657631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13265.9509248</c:v>
+                  <c:v>13009.86335535547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15796.588961792</c:v>
+                  <c:v>15474.64605354326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18428.45252026368</c:v>
+                  <c:v>18035.06232042074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21165.59062107423</c:v>
+                  <c:v>20694.82273845306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24012.2142459172</c:v>
+                  <c:v>23457.78186070504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26972.7028157539</c:v>
+                  <c:v>26327.9437969004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30051.61092838405</c:v>
+                  <c:v>29309.46801622013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33253.67536551941</c:v>
+                  <c:v>32406.67537524947</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36583.8223801402</c:v>
+                  <c:v>35624.05437980915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40047.1752753458</c:v>
+                  <c:v>38966.26768974575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43649.06228635963</c:v>
+                  <c:v>42438.15887610788</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47395.02477781402</c:v>
+                  <c:v>46044.75944050086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51290.82576892658</c:v>
+                  <c:v>49791.2961067923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55342.45879968365</c:v>
+                  <c:v>53683.19839573583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59556.157151671</c:v>
+                  <c:v>57726.10649349038</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63938.40343773783</c:v>
+                  <c:v>61925.87942543782</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68495.93957524735</c:v>
+                  <c:v>66288.6035471448</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>73235.77715825724</c:v>
+                  <c:v>70820.601364774</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78165.20824458754</c:v>
+                  <c:v>75528.44069772724</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83291.81657437104</c:v>
+                  <c:v>80418.94419679907</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>88623.48923734589</c:v>
+                  <c:v>85499.19923163487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>94168.42880683973</c:v>
+                  <c:v>90776.56816182231</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99935.16595911332</c:v>
+                  <c:v>96258.699006501</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>105932.5725974779</c:v>
+                  <c:v>101953.5365279533</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>112169.875501377</c:v>
+                  <c:v>107869.3337452379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118656.6705214321</c:v>
+                  <c:v>114014.6638945531</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>125402.9373422894</c:v>
+                  <c:v>120398.4328536618</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132419.0548359809</c:v>
+                  <c:v>127029.8920483838</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>139715.8170294202</c:v>
+                  <c:v>133918.6518598611</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>147304.449710597</c:v>
+                  <c:v>141074.6955520238</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>155196.6276990209</c:v>
+                  <c:v>148508.3937394423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>163404.4928069817</c:v>
+                  <c:v>156230.5194165327</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>171940.672519261</c:v>
+                  <c:v>164252.2635698942</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>180818.2994200314</c:v>
+                  <c:v>172585.2513964061</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>190051.0313968327</c:v>
+                  <c:v>181241.5591505866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,8 +491,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085674952"/>
-        <c:axId val="-2085703624"/>
+        <c:axId val="-2079131096"/>
+        <c:axId val="-2079127160"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -486,7 +513,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$53</c:f>
+              <c:f>Sheet1!$A$15:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -625,11 +652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2085674952"/>
-        <c:axId val="-2085703624"/>
+        <c:axId val="-2079131096"/>
+        <c:axId val="-2079127160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085674952"/>
+        <c:axId val="-2079131096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +679,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -664,7 +691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085703624"/>
+        <c:crossAx val="-2079127160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -674,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085703624"/>
+        <c:axId val="-2079127160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +734,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -719,7 +746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085674952"/>
+        <c:crossAx val="-2079131096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -755,7 +782,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -779,16 +806,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1134,16 +1161,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C472"/>
+  <dimension ref="A1:C473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14" thickBot="1">
@@ -1182,10 +1210,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.06</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13" thickBot="1">
@@ -1193,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13" thickBot="1">
@@ -1204,12 +1232,12 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <f>B4-B5</f>
-        <v>5.5E-2</v>
-      </c>
-      <c r="C6">
-        <f>C4-C5</f>
-        <v>3.9999999999999994E-2</v>
+        <f>B4</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <f>C4</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13" thickBot="1">
@@ -1217,592 +1245,601 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <f>1+B6</f>
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="C7">
-        <f>1+C6</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <f>(B7^B3-B7)/(B7-1)</f>
-        <v>135.60561407229602</v>
-      </c>
-      <c r="C9" s="3">
-        <f>(C7^C3-C7)/(C7-1)</f>
-        <v>94.025515698416399</v>
+        <f>1+(B6/100)</f>
+        <v>1.06</v>
+      </c>
+      <c r="C7" s="3">
+        <f>1+(C6/100)</f>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f>1-(B5/100)</f>
+        <v>0.995</v>
+      </c>
+      <c r="C8">
+        <f>1-(C5/100)</f>
+        <v>0.98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <f>B9*(B2)</f>
-        <v>271211.22814459202</v>
+        <f>(B7^B3-B7)/(B7-1)</f>
+        <v>153.76196561876534</v>
       </c>
       <c r="C10" s="3">
-        <f>C9*(C2)</f>
-        <v>188051.03139683281</v>
+        <f>(C7^C3-C7)/(C7-1)</f>
+        <v>153.76196561876534</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" thickBot="1">
       <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10*(B2)</f>
+        <v>307523.93123753066</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C10*(C2)</f>
+        <v>307523.93123753066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13" thickBot="1">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <f>B10+B2:B2</f>
-        <v>273211.22814459202</v>
-      </c>
-      <c r="C11" s="3">
-        <f>C10+C2:C2</f>
-        <v>190051.03139683281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13" thickBot="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <f>B11+B2:B2</f>
+        <v>309523.93123753066</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C11+C2:C2</f>
+        <v>309523.93123753066</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="13" thickBot="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="13" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" thickBot="1">
-      <c r="A14" s="4">
+    <row r="15" spans="1:3" ht="13" thickBot="1">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <f>B2</f>
         <v>2000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <f>C2</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" thickBot="1">
-      <c r="A15" s="4">
+    <row r="16" spans="1:3" ht="13" thickBot="1">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
-        <f>B14*B$7+B$2</f>
-        <v>4110</v>
-      </c>
-      <c r="C15" s="3">
-        <f>C14*C$7+C$2</f>
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13" thickBot="1">
-      <c r="A16" s="5">
+      <c r="B16" s="3">
+        <f>(B15*B$7+B$2)*$B$8</f>
+        <v>4099.3999999999996</v>
+      </c>
+      <c r="C16" s="3">
+        <f>(C15*C$7+C$2)*$C$8</f>
+        <v>4037.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13" thickBot="1">
+      <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" ref="B16:B32" si="0">B15*B$7+B$2</f>
-        <v>6336.05</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:C32" si="1">C15*C$7+C$2</f>
-        <v>6243.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13" thickBot="1">
-      <c r="A17" s="4">
-        <v>4</v>
-      </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>8684.5327499999985</v>
+        <f t="shared" ref="B17:B54" si="0">(B16*B$7+B$2)*$B$8</f>
+        <v>6313.6371799999997</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>8492.9279999999999</v>
+        <f t="shared" ref="C17:C54" si="1">(C16*C$7+C$2)*$C$8</f>
+        <v>6154.2588799999994</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13" thickBot="1">
       <c r="A18" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>11162.182051249998</v>
+        <v>8648.9931337460002</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
-        <v>10832.645120000001</v>
+        <v>8353.0441245439997</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13" thickBot="1">
       <c r="A19" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>13776.102064068747</v>
+        <v>11112.093058161907</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="1"/>
-        <v>13265.950924800001</v>
+        <v>10637.142236576306</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13" thickBot="1">
       <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>13709.924548443363</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>13009.863355355468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13" thickBot="1">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>16533.787677592525</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="1"/>
-        <v>15796.588961792002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="13" thickBot="1">
-      <c r="A21" s="5">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>16449.857421243218</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>15474.64605354326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13" thickBot="1">
+      <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>19443.145999860113</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="1"/>
-        <v>18428.452520263683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="13" thickBot="1">
-      <c r="A22" s="4">
-        <v>9</v>
-      </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>22512.519029852418</v>
+        <v>19339.664622185224</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="1"/>
-        <v>21165.590621074232</v>
+        <v>18035.062320420737</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13" thickBot="1">
       <c r="A23" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>25750.7075764943</v>
+        <v>22387.544277018755</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="1"/>
-        <v>24012.214245917203</v>
+        <v>20694.822738453062</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13" thickBot="1">
       <c r="A24" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>29166.996493201485</v>
+        <v>25602.142948971683</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
-        <v>26972.702815753892</v>
+        <v>23457.781860705043</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13" thickBot="1">
       <c r="A25" s="4">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>28992.580168280438</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>26327.943796900399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13" thickBot="1">
+      <c r="A26" s="4">
         <v>12</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>32771.18130032756</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="1"/>
-        <v>30051.610928384049</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="13" thickBot="1">
-      <c r="A26" s="5">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>32568.474303485378</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>29309.468016220133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13" thickBot="1">
+      <c r="A27" s="5">
         <v>13</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>36573.59627184557</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="1"/>
-        <v>33253.675365519412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="13" thickBot="1">
-      <c r="A27" s="4">
-        <v>14</v>
-      </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>40585.144066797075</v>
+        <v>36339.96984788603</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="1"/>
-        <v>36583.822380140191</v>
+        <v>32406.675375249473</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1">
       <c r="A28" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>44817.326990470909</v>
+        <v>40317.766198565398</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="1"/>
-        <v>40047.175275345799</v>
+        <v>35624.054379809153</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13" thickBot="1">
       <c r="A29" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>49282.279974946803</v>
+        <v>44513.14800962693</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="1"/>
-        <v>43649.062286359629</v>
+        <v>38966.26768974575</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13" thickBot="1">
       <c r="A30" s="4">
+        <v>16</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>48938.017205753524</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
+        <v>42438.158876107882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13" thickBot="1">
+      <c r="A31" s="4">
         <v>17</v>
       </c>
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>53992.805373568874</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="1"/>
-        <v>47395.024777814018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="13" thickBot="1">
-      <c r="A31" s="5">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>53604.926746908241</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
+        <v>46044.759440500864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13" thickBot="1">
+      <c r="A32" s="5">
         <v>18</v>
       </c>
-      <c r="B31" s="3">
-        <f t="shared" si="0"/>
-        <v>58962.409669115157</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="1"/>
-        <v>51290.825768926581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="13" thickBot="1">
-      <c r="A32" s="4">
-        <v>19</v>
-      </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>64205.342200916486</v>
+        <v>58527.116239964125</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="1"/>
-        <v>55342.458799683649</v>
+        <v>49791.296106792295</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13" thickBot="1">
       <c r="A33" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" ref="B33:B53" si="2">B32*B$7+B$2</f>
-        <v>69736.636021966886</v>
+        <f t="shared" si="0"/>
+        <v>63718.549498290166</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:C53" si="3">C32*C$7+C$2</f>
-        <v>59556.157151670996</v>
+        <f t="shared" si="1"/>
+        <v>53683.198395735832</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13" thickBot="1">
       <c r="A34" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="2"/>
-        <v>75572.151003175066</v>
+        <f t="shared" si="0"/>
+        <v>69193.954155846644</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="3"/>
-        <v>63938.403437737834</v>
+        <f t="shared" si="1"/>
+        <v>57726.106493490384</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1">
       <c r="A35" s="4">
+        <v>21</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>74968.863448171454</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
+        <v>61925.879425437815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13" thickBot="1">
+      <c r="A36" s="4">
         <v>22</v>
       </c>
-      <c r="B35" s="3">
-        <f t="shared" si="2"/>
-        <v>81728.619308349691</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="3"/>
-        <v>68495.93957524735</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="13" thickBot="1">
-      <c r="A36" s="5">
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>81059.660278786439</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
+        <v>66288.603547144798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13" thickBot="1">
+      <c r="A37" s="5">
         <v>23</v>
       </c>
-      <c r="B36" s="3">
-        <f t="shared" si="2"/>
-        <v>88223.693370308916</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="3"/>
-        <v>73235.777158257246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="13" thickBot="1">
-      <c r="A37" s="4">
-        <v>24</v>
-      </c>
       <c r="B37" s="3">
-        <f t="shared" si="2"/>
-        <v>95075.996505675896</v>
+        <f t="shared" si="0"/>
+        <v>87483.623696036055</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="3"/>
-        <v>78165.208244587542</v>
+        <f t="shared" si="1"/>
+        <v>70820.601364774018</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13" thickBot="1">
       <c r="A38" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="2"/>
-        <v>102305.17631348806</v>
+        <f t="shared" si="0"/>
+        <v>94258.97791220923</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="3"/>
-        <v>83291.816574371041</v>
+        <f t="shared" si="1"/>
+        <v>75528.440697727245</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13" thickBot="1">
       <c r="A39" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="2"/>
-        <v>109931.96101072989</v>
+        <f t="shared" si="0"/>
+        <v>101404.94400400708</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="3"/>
-        <v>88623.489237345886</v>
+        <f t="shared" si="1"/>
+        <v>80418.944196799072</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13" thickBot="1">
       <c r="A40" s="4">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="0"/>
+        <v>108941.79444102627</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="1"/>
+        <v>85499.199231634877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13" thickBot="1">
+      <c r="A41" s="4">
         <v>27</v>
       </c>
-      <c r="B40" s="3">
-        <f t="shared" si="2"/>
-        <v>117978.21886632004</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="3"/>
-        <v>94168.428806839729</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="13" thickBot="1">
-      <c r="A41" s="5">
+      <c r="B41" s="3">
+        <f t="shared" si="0"/>
+        <v>116890.91059695042</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>90776.568161822317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13" thickBot="1">
+      <c r="A42" s="5">
         <v>28</v>
       </c>
-      <c r="B41" s="3">
-        <f t="shared" si="2"/>
-        <v>126467.02090396763</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="3"/>
-        <v>99935.165959113321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13" thickBot="1">
-      <c r="A42" s="4">
-        <v>29</v>
-      </c>
       <c r="B42" s="3">
-        <f t="shared" si="2"/>
-        <v>135422.70705368585</v>
+        <f t="shared" si="0"/>
+        <v>125274.84340660361</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="3"/>
-        <v>105932.57259747786</v>
+        <f t="shared" si="1"/>
+        <v>96258.699006501018</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1">
       <c r="A43" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="2"/>
-        <v>144870.95594163856</v>
+        <f t="shared" si="0"/>
+        <v>134117.37734094483</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="3"/>
-        <v>112169.87550137698</v>
+        <f t="shared" si="1"/>
+        <v>101953.53652795327</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13" thickBot="1">
       <c r="A44" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="2"/>
-        <v>154838.85851842866</v>
+        <f t="shared" si="0"/>
+        <v>143443.59788149453</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="3"/>
-        <v>118656.67052143207</v>
+        <f t="shared" si="1"/>
+        <v>107869.33374523786</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13" thickBot="1">
       <c r="A45" s="4">
+        <v>31</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="0"/>
+        <v>153279.96268561226</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>114014.6638945531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13" thickBot="1">
+      <c r="A46" s="4">
         <v>32</v>
       </c>
-      <c r="B45" s="3">
-        <f t="shared" si="2"/>
-        <v>165354.99573694222</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="3"/>
-        <v>125402.93734228936</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13" thickBot="1">
-      <c r="A46" s="5">
+      <c r="B46" s="3">
+        <f t="shared" si="0"/>
+        <v>163654.37664451526</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="1"/>
+        <v>120398.43285366175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13" thickBot="1">
+      <c r="A47" s="5">
         <v>33</v>
       </c>
-      <c r="B46" s="3">
-        <f t="shared" si="2"/>
-        <v>176449.52050247404</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="3"/>
-        <v>132419.05483598093</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13" thickBot="1">
-      <c r="A47" s="4">
-        <v>34</v>
-      </c>
       <c r="B47" s="3">
-        <f t="shared" si="2"/>
-        <v>188154.24413011011</v>
+        <f t="shared" si="0"/>
+        <v>174596.27104697024</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="3"/>
-        <v>139715.81702942017</v>
+        <f t="shared" si="1"/>
+        <v>127029.89204838383</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13" thickBot="1">
       <c r="A48" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="2"/>
-        <v>200502.72755726616</v>
+        <f t="shared" si="0"/>
+        <v>186136.68707323953</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="3"/>
-        <v>147304.44971059699</v>
+        <f t="shared" si="1"/>
+        <v>133918.65185986113</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13" thickBot="1">
       <c r="A49" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="2"/>
-        <v>213530.37757291578</v>
+        <f t="shared" si="0"/>
+        <v>198308.36385614573</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="3"/>
-        <v>155196.62769902087</v>
+        <f t="shared" si="1"/>
+        <v>141074.69555202377</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1">
       <c r="A50" s="4">
+        <v>36</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="0"/>
+        <v>211145.8313590769</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>148508.39373944231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13" thickBot="1">
+      <c r="A51" s="4">
         <v>37</v>
       </c>
-      <c r="B50" s="3">
-        <f t="shared" si="2"/>
-        <v>227274.54833942614</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="3"/>
-        <v>163404.49280698173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="13" thickBot="1">
-      <c r="A51" s="5">
+      <c r="B51" s="3">
+        <f t="shared" si="0"/>
+        <v>224685.50833441841</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="1"/>
+        <v>156230.51941653268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13" thickBot="1">
+      <c r="A52" s="5">
         <v>38</v>
       </c>
-      <c r="B51" s="3">
-        <f t="shared" si="2"/>
-        <v>241774.64849809455</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="3"/>
-        <v>171940.67251926099</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="13" thickBot="1">
-      <c r="A52" s="4">
-        <v>39</v>
-      </c>
       <c r="B52" s="3">
-        <f t="shared" si="2"/>
-        <v>257072.25416548975</v>
+        <f t="shared" si="0"/>
+        <v>238965.8056403111</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="3"/>
-        <v>180818.29942003143</v>
+        <f t="shared" si="1"/>
+        <v>164252.26356989416</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13" thickBot="1">
       <c r="A53" s="4">
+        <v>39</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="0"/>
+        <v>254027.23520883612</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>172585.25139640606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13" thickBot="1">
+      <c r="A54" s="4">
         <v>40</v>
       </c>
-      <c r="B53" s="3">
-        <f t="shared" si="2"/>
-        <v>273211.22814459167</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="3"/>
-        <v>190051.0313968327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="13" thickBot="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3">
+        <f t="shared" si="0"/>
+        <v>269912.52497475949</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>181241.5591505866</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1">
       <c r="A55" s="4"/>
@@ -2345,7 +2382,7 @@
       <c r="B189" s="3"/>
     </row>
     <row r="190" spans="1:2" ht="13" thickBot="1">
-      <c r="A190" s="2"/>
+      <c r="A190" s="4"/>
       <c r="B190" s="3"/>
     </row>
     <row r="191" spans="1:2" ht="13" thickBot="1">
@@ -3475,6 +3512,10 @@
     <row r="472" spans="1:2" ht="13" thickBot="1">
       <c r="A472" s="2"/>
       <c r="B472" s="3"/>
+    </row>
+    <row r="473" spans="1:2" ht="13" thickBot="1">
+      <c r="A473" s="2"/>
+      <c r="B473" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/client/data/Pensions calculator.xlsx
+++ b/client/data/Pensions calculator.xlsx
@@ -491,8 +491,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079131096"/>
-        <c:axId val="-2079127160"/>
+        <c:axId val="-2113121576"/>
+        <c:axId val="-2113118200"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -652,11 +652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2079131096"/>
-        <c:axId val="-2079127160"/>
+        <c:axId val="-2113121576"/>
+        <c:axId val="-2113118200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2079131096"/>
+        <c:axId val="-2113121576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079127160"/>
+        <c:crossAx val="-2113118200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079127160"/>
+        <c:axId val="-2113118200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079131096"/>
+        <c:crossAx val="-2113121576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:C473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
